--- a/biology/Écologie/Prairies_de_Rochefort_et_vallée_du_Louet/Prairies_de_Rochefort_et_vallée_du_Louet.xlsx
+++ b/biology/Écologie/Prairies_de_Rochefort_et_vallée_du_Louet/Prairies_de_Rochefort_et_vallée_du_Louet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prairies_de_Rochefort_et_vall%C3%A9e_du_Louet</t>
+          <t>Prairies_de_Rochefort_et_vallée_du_Louet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prairies de Rochefort et de la vallée du Louet sont classées en une zone naturelle d'intérêt écologique, faunistique et floristique de Maine-et-Loire[1]. Cet ensemble est constitué par de vastes prairies naturelles inondables s'étendant entre la rive sud de la Loire et la vallée du Louet. Ce paysage naturel est exploité pour l'agriculture avec la fauche et le pâturage[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prairies de Rochefort et de la vallée du Louet sont classées en une zone naturelle d'intérêt écologique, faunistique et floristique de Maine-et-Loire. Cet ensemble est constitué par de vastes prairies naturelles inondables s'étendant entre la rive sud de la Loire et la vallée du Louet. Ce paysage naturel est exploité pour l'agriculture avec la fauche et le pâturage. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prairies_de_Rochefort_et_vall%C3%A9e_du_Louet</t>
+          <t>Prairies_de_Rochefort_et_vallée_du_Louet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prairies de Rochefort et de la vallée du Louet forment une vaste zone prairiale naturelle relativement épargnée par l'urbanisation. Le périmètre englobe les zones les plus favorables entre Loire et Louet, qui hébergent une diversité faunistique et floristique importante. Les secteurs les plus urbanisés ont été exclus de la délimitation. Le territoire concerné s'étend sur les communes de Rochefort-sur-Loire, Chalonnes-sur-Loire, Denée, Mûrs-Erigné, Les Ponts-de-Cé et Juigné-sur-Loire.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prairies_de_Rochefort_et_vall%C3%A9e_du_Louet</t>
+          <t>Prairies_de_Rochefort_et_vallée_du_Louet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Milieu fragile et menacé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La baisse du fil d'eau de la Loire du fait des extractions de sable entraîne un assèchement plus précoce des prairies et un niveau d'étiage plus précaire du Louet préjudiciable à l'avifaune migratrice en hivernage et migration et à la faune aquatique. Les boires de la Ciretterie, des Pancartes et Colas ont perdu l'intérêt qu'elles avaient comme zone de frai[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La baisse du fil d'eau de la Loire du fait des extractions de sable entraîne un assèchement plus précoce des prairies et un niveau d'étiage plus précaire du Louet préjudiciable à l'avifaune migratrice en hivernage et migration et à la faune aquatique. Les boires de la Ciretterie, des Pancartes et Colas ont perdu l'intérêt qu'elles avaient comme zone de frai.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prairies_de_Rochefort_et_vall%C3%A9e_du_Louet</t>
+          <t>Prairies_de_Rochefort_et_vallée_du_Louet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Zone écologique protégée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les prairies de Rochefort et de la vallée du Louet font partie intégrante du  site Natura 2000 de Maine-et-Loire de la « vallée de la Loire de Nantes aux Ponts-de-Cé et ses annexes » .
 Le site est inscrit selon la loi de 1930 comme 
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prairies_de_Rochefort_et_vall%C3%A9e_du_Louet</t>
+          <t>Prairies_de_Rochefort_et_vallée_du_Louet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>La Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces prairies humides eutrophes sont constituées d'une part de forêt de Frênes et d'Aulnes et de forêts mixtes de Chênes et d'Ormes ; et d'autre part de prairies de fauche, de fenaison et de culture de basse altitude avec plantations de peupliers et maintien de bordures de haies.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prairies_de_Rochefort_et_vall%C3%A9e_du_Louet</t>
+          <t>Prairies_de_Rochefort_et_vallée_du_Louet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>La faune</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La diversité des milieux naturels, (prairies humides, bocage, mares et haies), tous situés en zone inondable confère aux basses vallées angevines une grande importance pour la biodiversité. Les oiseaux et notamment les oiseaux migrateurs viennent nombreux s'y poser. 
 La zone est fréquentée par des centaines de limicoles (Vanneaux, Barges) et d'anatidés, ainsi que par l'oie cendrée, le râle des genêts et le traquet tarier.
